--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0846472967727868</v>
+        <v>0.1139166666666667</v>
       </c>
       <c r="H2">
-        <v>0.0846472967727868</v>
+        <v>0.34175</v>
       </c>
       <c r="I2">
-        <v>0.05786219508696229</v>
+        <v>0.04552287366220362</v>
       </c>
       <c r="J2">
-        <v>0.05786219508696229</v>
+        <v>0.04552287366220363</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.198463567688768</v>
+        <v>0.48641</v>
       </c>
       <c r="N2">
-        <v>0.198463567688768</v>
+        <v>1.45923</v>
       </c>
       <c r="O2">
-        <v>0.07106190718079851</v>
+        <v>0.1393325029444749</v>
       </c>
       <c r="P2">
-        <v>0.07106190718079851</v>
+        <v>0.1393325029444749</v>
       </c>
       <c r="Q2">
-        <v>0.01679940451273721</v>
+        <v>0.05541020583333333</v>
       </c>
       <c r="R2">
-        <v>0.01679940451273721</v>
+        <v>0.4986918524999999</v>
       </c>
       <c r="S2">
-        <v>0.00411179793654697</v>
+        <v>0.006342815928579945</v>
       </c>
       <c r="T2">
-        <v>0.00411179793654697</v>
+        <v>0.006342815928579945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0846472967727868</v>
+        <v>0.1139166666666667</v>
       </c>
       <c r="H3">
-        <v>0.0846472967727868</v>
+        <v>0.34175</v>
       </c>
       <c r="I3">
-        <v>0.05786219508696229</v>
+        <v>0.04552287366220362</v>
       </c>
       <c r="J3">
-        <v>0.05786219508696229</v>
+        <v>0.04552287366220363</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.59436279403312</v>
+        <v>3.004591666666666</v>
       </c>
       <c r="N3">
-        <v>2.59436279403312</v>
+        <v>9.013774999999999</v>
       </c>
       <c r="O3">
-        <v>0.9289380928192016</v>
+        <v>0.8606674970555251</v>
       </c>
       <c r="P3">
-        <v>0.9289380928192016</v>
+        <v>0.8606674970555251</v>
       </c>
       <c r="Q3">
-        <v>0.2196057973627979</v>
+        <v>0.3422730673611111</v>
       </c>
       <c r="R3">
-        <v>0.2196057973627979</v>
+        <v>3.08045760625</v>
       </c>
       <c r="S3">
-        <v>0.05375039715041532</v>
+        <v>0.03918005773362368</v>
       </c>
       <c r="T3">
-        <v>0.05375039715041532</v>
+        <v>0.03918005773362369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.37826465541929</v>
+        <v>0.3546683333333333</v>
       </c>
       <c r="H4">
-        <v>1.37826465541929</v>
+        <v>1.064005</v>
       </c>
       <c r="I4">
-        <v>0.9421378049130378</v>
+        <v>0.1417309881227592</v>
       </c>
       <c r="J4">
-        <v>0.9421378049130378</v>
+        <v>0.1417309881227592</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.198463567688768</v>
+        <v>0.48641</v>
       </c>
       <c r="N4">
-        <v>0.198463567688768</v>
+        <v>1.45923</v>
       </c>
       <c r="O4">
-        <v>0.07106190718079851</v>
+        <v>0.1393325029444749</v>
       </c>
       <c r="P4">
-        <v>0.07106190718079851</v>
+        <v>0.1393325029444749</v>
       </c>
       <c r="Q4">
-        <v>0.2735353207338428</v>
+        <v>0.1725142240166666</v>
       </c>
       <c r="R4">
-        <v>0.2735353207338428</v>
+        <v>1.55262801615</v>
       </c>
       <c r="S4">
-        <v>0.06695010924425154</v>
+        <v>0.01974773331993768</v>
       </c>
       <c r="T4">
-        <v>0.06695010924425154</v>
+        <v>0.01974773331993768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3546683333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.064005</v>
+      </c>
+      <c r="I5">
+        <v>0.1417309881227592</v>
+      </c>
+      <c r="J5">
+        <v>0.1417309881227592</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.004591666666666</v>
+      </c>
+      <c r="N5">
+        <v>9.013774999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.8606674970555251</v>
+      </c>
+      <c r="P5">
+        <v>0.8606674970555251</v>
+      </c>
+      <c r="Q5">
+        <v>1.065633518763889</v>
+      </c>
+      <c r="R5">
+        <v>9.590701668874997</v>
+      </c>
+      <c r="S5">
+        <v>0.1219832548028215</v>
+      </c>
+      <c r="T5">
+        <v>0.1219832548028215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.37826465541929</v>
-      </c>
-      <c r="H5">
-        <v>1.37826465541929</v>
-      </c>
-      <c r="I5">
-        <v>0.9421378049130378</v>
-      </c>
-      <c r="J5">
-        <v>0.9421378049130378</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.59436279403312</v>
-      </c>
-      <c r="N5">
-        <v>2.59436279403312</v>
-      </c>
-      <c r="O5">
-        <v>0.9289380928192016</v>
-      </c>
-      <c r="P5">
-        <v>0.9289380928192016</v>
-      </c>
-      <c r="Q5">
-        <v>3.575718542350685</v>
-      </c>
-      <c r="R5">
-        <v>3.575718542350685</v>
-      </c>
-      <c r="S5">
-        <v>0.8751876956687863</v>
-      </c>
-      <c r="T5">
-        <v>0.8751876956687863</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.03382</v>
+      </c>
+      <c r="H6">
+        <v>6.101459999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.8127461382150372</v>
+      </c>
+      <c r="J6">
+        <v>0.8127461382150372</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.48641</v>
+      </c>
+      <c r="N6">
+        <v>1.45923</v>
+      </c>
+      <c r="O6">
+        <v>0.1393325029444749</v>
+      </c>
+      <c r="P6">
+        <v>0.1393325029444749</v>
+      </c>
+      <c r="Q6">
+        <v>0.9892703861999999</v>
+      </c>
+      <c r="R6">
+        <v>8.903433475799998</v>
+      </c>
+      <c r="S6">
+        <v>0.1132419536959573</v>
+      </c>
+      <c r="T6">
+        <v>0.1132419536959572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.03382</v>
+      </c>
+      <c r="H7">
+        <v>6.101459999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.8127461382150372</v>
+      </c>
+      <c r="J7">
+        <v>0.8127461382150372</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.004591666666666</v>
+      </c>
+      <c r="N7">
+        <v>9.013774999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.8606674970555251</v>
+      </c>
+      <c r="P7">
+        <v>0.8606674970555251</v>
+      </c>
+      <c r="Q7">
+        <v>6.110798623499999</v>
+      </c>
+      <c r="R7">
+        <v>54.99718761149999</v>
+      </c>
+      <c r="S7">
+        <v>0.6995041845190799</v>
+      </c>
+      <c r="T7">
+        <v>0.6995041845190799</v>
       </c>
     </row>
   </sheetData>
